--- a/sourseMaterial/雪山A13车库资料/a13-data-test.xlsx
+++ b/sourseMaterial/雪山A13车库资料/a13-data-test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>首改</t>
   </si>
@@ -42,9 +42,6 @@
     <t>car ownership</t>
   </si>
   <si>
-    <t>V1</t>
-  </si>
-  <si>
     <t>面积</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>平均车位价格</t>
   </si>
   <si>
-    <t>V2</t>
-  </si>
-  <si>
     <t>V3</t>
   </si>
   <si>
@@ -96,20 +90,27 @@
     <t>总货值</t>
   </si>
   <si>
-    <t>首置</t>
-  </si>
-  <si>
-    <t>改善</t>
+    <t>方案1</t>
+  </si>
+  <si>
+    <t>首置场景</t>
+  </si>
+  <si>
+    <t>改善场景</t>
+  </si>
+  <si>
+    <t>方案2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,13 +128,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +159,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -156,21 +184,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -452,13 +488,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:R99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L59" sqref="L59"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -533,7 +570,7 @@
         <v>182000</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" ref="E12:F15" si="0">$E$5/(($E$6^(LOG(C12/$C$7)/LOG(2))*12000)/C12)</f>
+        <f t="shared" ref="E12:E15" si="0">$E$5/(($E$6^(LOG(C12/$C$7)/LOG(2))*12000)/C12)</f>
         <v>0.98329515126782319</v>
       </c>
       <c r="F12" s="1">
@@ -881,7 +918,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H34">
         <v>24</v>
@@ -897,56 +934,73 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39">
+      <c r="C39" s="7">
         <v>4559</v>
       </c>
-      <c r="D39" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39">
+      <c r="D39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="7">
         <f>C39*3100/10000 +( C40-402) *6000/10000</f>
         <v>1413.29</v>
       </c>
-      <c r="F39" t="s">
-        <v>23</v>
+      <c r="F39" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40">
+      <c r="B40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="7">
         <v>402</v>
       </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A41" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -996,33 +1050,29 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" s="5">
         <f>AVERAGE(D43:R43)</f>
-        <v>0.7857142857142857</v>
+        <v>0.94800000000000006</v>
       </c>
       <c r="D43" s="4">
-        <v>0.72</v>
+        <v>0.96</v>
       </c>
       <c r="E43" s="4">
-        <v>0.76</v>
+        <v>0.95</v>
       </c>
       <c r="F43" s="4">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="G43" s="4">
-        <v>0.76</v>
+        <v>0.92</v>
       </c>
       <c r="H43" s="4">
-        <v>0.89</v>
-      </c>
-      <c r="I43" s="4">
-        <v>0.77</v>
-      </c>
-      <c r="J43" s="4">
-        <v>0.85</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -1034,144 +1084,127 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44" s="6">
         <f>AVERAGE(D44:R44)</f>
-        <v>1728.8571428571429</v>
+        <v>2075.8000000000002</v>
       </c>
       <c r="D44">
-        <v>1739</v>
+        <v>2032</v>
       </c>
       <c r="E44">
-        <v>1613</v>
+        <v>2106</v>
       </c>
       <c r="F44">
-        <v>1763</v>
+        <v>2022</v>
       </c>
       <c r="G44">
-        <v>1786</v>
+        <v>2030</v>
       </c>
       <c r="H44">
-        <v>1711</v>
-      </c>
-      <c r="I44">
-        <v>1746</v>
-      </c>
-      <c r="J44">
-        <v>1744</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45" s="6">
         <f t="shared" ref="C45:C47" si="4">AVERAGE(D45:R45)</f>
-        <v>75.142857142857139</v>
+        <v>90.6</v>
       </c>
       <c r="D45">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E45">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="F45">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G45">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="H45">
-        <v>76</v>
-      </c>
-      <c r="I45">
-        <v>75</v>
-      </c>
-      <c r="J45">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="6">
+        <v>13</v>
+      </c>
+      <c r="C46" s="11">
         <f t="shared" si="4"/>
-        <v>785</v>
+        <v>933.6</v>
       </c>
       <c r="D46">
-        <v>772</v>
+        <v>958</v>
       </c>
       <c r="E46">
-        <v>770</v>
+        <v>922</v>
       </c>
       <c r="F46">
-        <v>794</v>
+        <v>976</v>
       </c>
       <c r="G46">
-        <v>780</v>
+        <v>853</v>
       </c>
       <c r="H46">
-        <v>760</v>
-      </c>
-      <c r="I46">
-        <v>784</v>
-      </c>
-      <c r="J46">
-        <v>835</v>
+        <v>959</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" s="6">
         <f t="shared" si="4"/>
-        <v>9.9142857142857146</v>
+        <v>9.5400000000000009</v>
       </c>
       <c r="D47">
-        <v>10.6</v>
+        <v>9.9</v>
       </c>
       <c r="E47">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="F47">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="G47">
-        <v>10.1</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H47">
-        <v>8.4</v>
-      </c>
-      <c r="I47">
-        <v>10.1</v>
-      </c>
-      <c r="J47">
-        <v>9.6999999999999993</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="6">
+        <v>22</v>
+      </c>
+      <c r="C48" s="11">
         <f>C47*101</f>
-        <v>1001.3428571428572</v>
+        <v>963.54000000000008</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A49" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1221,25 +1254,27 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C51" s="5">
         <f>AVERAGE(D51:R51)</f>
-        <v>0.90500000000000003</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="D51" s="4">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="E51" s="4">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="F51" s="4">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="G51" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="H51" s="4"/>
+        <v>0.97</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0.98</v>
+      </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -1253,136 +1288,168 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52" s="6">
         <f>AVERAGE(D52:R52)</f>
-        <v>2380</v>
+        <v>2909</v>
       </c>
       <c r="D52">
-        <v>2099</v>
+        <v>2955</v>
       </c>
       <c r="E52">
-        <v>2528</v>
+        <v>2981</v>
       </c>
       <c r="F52">
-        <v>2632</v>
+        <v>2890</v>
       </c>
       <c r="G52">
-        <v>2261</v>
+        <v>2824</v>
+      </c>
+      <c r="H52">
+        <v>2895</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C53" s="6">
         <f t="shared" ref="C53:C55" si="5">AVERAGE(D53:R53)</f>
-        <v>75.25</v>
+        <v>91.8</v>
       </c>
       <c r="D53">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="E53">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F53">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G53">
-        <v>72</v>
+        <v>91</v>
+      </c>
+      <c r="H53">
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="6">
+        <v>13</v>
+      </c>
+      <c r="C54" s="11">
         <f t="shared" si="5"/>
-        <v>1329</v>
+        <v>1409</v>
       </c>
       <c r="D54">
-        <v>1198</v>
+        <v>1471</v>
       </c>
       <c r="E54">
-        <v>1399</v>
+        <v>1410</v>
       </c>
       <c r="F54">
-        <v>1492</v>
+        <v>1447</v>
       </c>
       <c r="G54">
-        <v>1227</v>
+        <v>1323</v>
+      </c>
+      <c r="H54">
+        <v>1394</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C55" s="6">
         <f t="shared" si="5"/>
-        <v>14.524999999999999</v>
+        <v>14.2</v>
       </c>
       <c r="D55">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="E55">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="F55">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="G55">
-        <v>13.8</v>
+        <v>13.5</v>
+      </c>
+      <c r="H55">
+        <v>14.1</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" s="6">
+        <v>22</v>
+      </c>
+      <c r="C56" s="11">
         <f>C55*101</f>
-        <v>1467.0249999999999</v>
+        <v>1434.1999999999998</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="A62" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63">
+      <c r="B63" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="7">
         <v>4537</v>
       </c>
-      <c r="D63" t="s">
-        <v>22</v>
-      </c>
-      <c r="E63">
+      <c r="D63" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="7">
         <f>C63*3100/10000 +( C64-402) *6000/10000</f>
         <v>1497.67</v>
       </c>
+      <c r="F63" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64">
+      <c r="B64" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="7">
         <v>554</v>
       </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A65" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -1432,294 +1499,161 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C67" s="5">
         <f>AVERAGE(D67:R67)</f>
-        <v>0.78533333333333333</v>
+        <v>0.92000000000000015</v>
       </c>
       <c r="D67" s="4">
-        <v>0.68</v>
+        <v>0.96</v>
       </c>
       <c r="E67" s="4">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F67" s="4">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
       <c r="G67" s="4">
-        <v>0.81</v>
+        <v>0.92</v>
       </c>
       <c r="H67" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="I67" s="4">
-        <v>0.76</v>
-      </c>
-      <c r="J67" s="4">
-        <v>0.92</v>
-      </c>
-      <c r="K67" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="L67" s="4">
-        <v>0.84</v>
-      </c>
-      <c r="M67" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="N67" s="4">
-        <v>0.74</v>
-      </c>
-      <c r="O67" s="4">
-        <v>0.76</v>
-      </c>
-      <c r="P67" s="4">
-        <v>0.74</v>
-      </c>
-      <c r="Q67" s="4">
-        <v>0.89</v>
-      </c>
-      <c r="R67" s="4">
-        <v>0.7</v>
-      </c>
+        <v>0.88</v>
+      </c>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C68" s="6">
         <f>AVERAGE(D68:R68)</f>
-        <v>1729.2666666666667</v>
+        <v>2064.1999999999998</v>
       </c>
       <c r="D68">
-        <v>1606</v>
+        <v>2090</v>
       </c>
       <c r="E68">
-        <v>1707</v>
+        <v>1961</v>
       </c>
       <c r="F68">
-        <v>1631</v>
+        <v>2124</v>
       </c>
       <c r="G68">
-        <v>1712</v>
+        <v>2085</v>
       </c>
       <c r="H68">
-        <v>1761</v>
-      </c>
-      <c r="I68">
-        <v>1613</v>
-      </c>
-      <c r="J68">
-        <v>1884</v>
-      </c>
-      <c r="K68">
-        <v>1736</v>
-      </c>
-      <c r="L68">
-        <v>1808</v>
-      </c>
-      <c r="M68">
-        <v>1833</v>
-      </c>
-      <c r="N68">
-        <v>1633</v>
-      </c>
-      <c r="O68">
-        <v>1781</v>
-      </c>
-      <c r="P68">
-        <v>1762</v>
-      </c>
-      <c r="Q68">
-        <v>1934</v>
-      </c>
-      <c r="R68">
-        <v>1538</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C69" s="6">
         <f t="shared" ref="C69:C71" si="6">AVERAGE(D69:R69)</f>
-        <v>76.066666666666663</v>
+        <v>90.8</v>
       </c>
       <c r="D69">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="E69">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F69">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="G69">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H69">
-        <v>76</v>
-      </c>
-      <c r="I69">
-        <v>71</v>
-      </c>
-      <c r="J69">
-        <v>82</v>
-      </c>
-      <c r="K69">
-        <v>86</v>
-      </c>
-      <c r="L69">
-        <v>80</v>
-      </c>
-      <c r="M69">
-        <v>78</v>
-      </c>
-      <c r="N69">
-        <v>70</v>
-      </c>
-      <c r="O69">
-        <v>76</v>
-      </c>
-      <c r="P69">
-        <v>77</v>
-      </c>
-      <c r="Q69">
-        <v>82</v>
-      </c>
-      <c r="R69">
-        <v>69</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" s="6">
+        <v>13</v>
+      </c>
+      <c r="C70" s="11">
         <f t="shared" si="6"/>
-        <v>828.06666666666672</v>
+        <v>971.2</v>
       </c>
       <c r="D70">
-        <v>717</v>
+        <v>990</v>
       </c>
       <c r="E70">
-        <v>833</v>
+        <v>964</v>
       </c>
       <c r="F70">
-        <v>773</v>
+        <v>1010</v>
       </c>
       <c r="G70">
-        <v>850</v>
+        <v>964</v>
       </c>
       <c r="H70">
-        <v>739</v>
-      </c>
-      <c r="I70">
-        <v>819</v>
-      </c>
-      <c r="J70">
-        <v>961</v>
-      </c>
-      <c r="K70">
-        <v>883</v>
-      </c>
-      <c r="L70">
-        <v>832</v>
-      </c>
-      <c r="M70">
-        <v>839</v>
-      </c>
-      <c r="N70">
-        <v>769</v>
-      </c>
-      <c r="O70">
-        <v>865</v>
-      </c>
-      <c r="P70">
-        <v>837</v>
-      </c>
-      <c r="Q70">
-        <v>969</v>
-      </c>
-      <c r="R70">
-        <v>735</v>
+        <v>928</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C71" s="6">
         <f t="shared" si="6"/>
-        <v>10.299999999999999</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D71">
-        <v>10.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="E71">
-        <v>10.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="F71">
-        <v>9.6999999999999993</v>
+        <v>10.7</v>
       </c>
       <c r="G71">
-        <v>10.199999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="H71">
-        <v>10.3</v>
-      </c>
-      <c r="I71">
-        <v>10.5</v>
-      </c>
-      <c r="J71">
-        <v>10.1</v>
-      </c>
-      <c r="K71">
-        <v>9.9</v>
-      </c>
-      <c r="L71">
-        <v>9.6</v>
-      </c>
-      <c r="M71">
-        <v>10.9</v>
-      </c>
-      <c r="N71">
-        <v>10.1</v>
-      </c>
-      <c r="O71">
-        <v>11.1</v>
-      </c>
-      <c r="P71">
-        <v>11</v>
-      </c>
-      <c r="Q71">
-        <v>10.5</v>
-      </c>
-      <c r="R71">
         <v>10.199999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>24</v>
-      </c>
-      <c r="C72" s="6">
+        <v>22</v>
+      </c>
+      <c r="C72" s="11">
         <f>C71*101</f>
-        <v>1040.3</v>
+        <v>1030.1999999999998</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A73" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -1769,30 +1703,28 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C75" s="5">
         <f>AVERAGE(D75:R75)</f>
-        <v>0.89333333333333342</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="D75" s="4">
-        <v>0.89</v>
+        <v>0.99</v>
       </c>
       <c r="E75" s="4">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="F75" s="4">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="G75" s="4">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="H75" s="4">
-        <v>0.89</v>
-      </c>
-      <c r="I75" s="4">
-        <v>0.99</v>
-      </c>
+        <v>0.98</v>
+      </c>
+      <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
@@ -1805,135 +1737,123 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C76" s="6">
         <f>AVERAGE(D76:R76)</f>
-        <v>2405.5</v>
+        <v>2922.8</v>
       </c>
       <c r="D76">
-        <v>2362</v>
+        <v>2947</v>
       </c>
       <c r="E76">
-        <v>2263</v>
+        <v>2744</v>
       </c>
       <c r="F76">
-        <v>2429</v>
+        <v>2943</v>
       </c>
       <c r="G76">
-        <v>2314</v>
+        <v>3153</v>
       </c>
       <c r="H76">
-        <v>2494</v>
-      </c>
-      <c r="I76">
-        <v>2571</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C77" s="6">
         <f t="shared" ref="C77:C79" si="7">AVERAGE(D77:R77)</f>
-        <v>77</v>
+        <v>93.6</v>
       </c>
       <c r="D77">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E77">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="F77">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="G77">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="H77">
-        <v>78</v>
-      </c>
-      <c r="I77">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>14</v>
-      </c>
-      <c r="C78" s="6">
+        <v>13</v>
+      </c>
+      <c r="C78" s="11">
         <f t="shared" si="7"/>
-        <v>1312.1666666666667</v>
+        <v>1538.6</v>
       </c>
       <c r="D78">
-        <v>1314</v>
+        <v>1589</v>
       </c>
       <c r="E78">
-        <v>1330</v>
+        <v>1572</v>
       </c>
       <c r="F78">
-        <v>1178</v>
+        <v>1520</v>
       </c>
       <c r="G78">
-        <v>1267</v>
+        <v>1572</v>
       </c>
       <c r="H78">
-        <v>1409</v>
-      </c>
-      <c r="I78">
-        <v>1375</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C79" s="6">
         <f t="shared" si="7"/>
-        <v>14.266666666666666</v>
+        <v>15.1</v>
       </c>
       <c r="D79">
+        <v>15.7</v>
+      </c>
+      <c r="E79">
+        <v>15.4</v>
+      </c>
+      <c r="F79">
+        <v>14.8</v>
+      </c>
+      <c r="G79">
+        <v>15.3</v>
+      </c>
+      <c r="H79">
         <v>14.3</v>
-      </c>
-      <c r="E79">
-        <v>14.3</v>
-      </c>
-      <c r="F79">
-        <v>14.9</v>
-      </c>
-      <c r="G79">
-        <v>13.3</v>
-      </c>
-      <c r="H79">
-        <v>15.3</v>
-      </c>
-      <c r="I79">
-        <v>13.5</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>24</v>
-      </c>
-      <c r="C80" s="6">
+        <v>22</v>
+      </c>
+      <c r="C80" s="11">
         <f>C79*101</f>
-        <v>1440.9333333333332</v>
+        <v>1525.1</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C90">
         <v>4706</v>
       </c>
       <c r="D90" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E90">
         <f>C90*3100/10000 +( C91-402) *6000/10000</f>
@@ -1942,7 +1862,7 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C91">
         <v>481</v>
@@ -1950,10 +1870,10 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -2003,7 +1923,7 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C94" s="5">
         <f>AVERAGE(D94:R94)</f>
@@ -2057,7 +1977,7 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C95" s="6">
         <f>AVERAGE(D95:R95)</f>
@@ -2111,7 +2031,7 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C96" s="6">
         <f t="shared" ref="C96:C98" si="8">AVERAGE(D96:R96)</f>
@@ -2165,7 +2085,7 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C97" s="6">
         <f t="shared" si="8"/>
@@ -2219,7 +2139,7 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C98" s="6">
         <f t="shared" si="8"/>
@@ -2273,7 +2193,7 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C99" s="6">
         <f>C98*101</f>
